--- a/apin_summary_CP.xlsx
+++ b/apin_summary_CP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,20 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P-value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>STD-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>min_CP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>avg_CP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>max_CP</t>
         </is>
@@ -487,21 +497,27 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>182.3754940711389</v>
+        <v>182.3754940711462</v>
       </c>
       <c r="D2" t="n">
-        <v>-363791.1739130284</v>
+        <v>-363791.1739130435</v>
       </c>
       <c r="E2" t="n">
+        <v>5.690648907385096e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36.3154211691292</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.5456544928353622</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>1229</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>3330.695652173913</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>7478</v>
       </c>
     </row>
@@ -517,21 +533,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29.52667984189628</v>
+        <v>29.52667984189723</v>
       </c>
       <c r="D3" t="n">
-        <v>-58805.68478260675</v>
+        <v>-58805.68478260869</v>
       </c>
       <c r="E3" t="n">
+        <v>5.865446707736058e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.894529977998569</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.5443869631292945</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>251</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>631.5217391304348</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>1413</v>
       </c>
     </row>
@@ -547,21 +569,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>97.89525691699299</v>
+        <v>97.89525691699605</v>
       </c>
       <c r="D4" t="n">
-        <v>-193393.4565217329</v>
+        <v>-193393.4565217391</v>
       </c>
       <c r="E4" t="n">
+        <v>8.169325869969541e-05</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20.10539911408211</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.5302871194894037</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>2621</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>3669.695652173913</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>5583</v>
       </c>
     </row>
@@ -577,21 +605,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-14.33596837944656</v>
+        <v>-14.33596837944664</v>
       </c>
       <c r="D5" t="n">
-        <v>29167.99999999982</v>
+        <v>29168</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5114186556076401</v>
+        <v>0.0001254665707386991</v>
       </c>
       <c r="F5" t="n">
+        <v>3.05771880388854</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.51141865560764</v>
+      </c>
+      <c r="H5" t="n">
         <v>140</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>309.6956521739131</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>594</v>
       </c>
     </row>
@@ -607,21 +641,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>94.97035573122291</v>
+        <v>94.9703557312253</v>
       </c>
       <c r="D6" t="n">
-        <v>-188837.2826086908</v>
+        <v>-188837.2826086956</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5013604231652893</v>
+        <v>0.0001567247372353112</v>
       </c>
       <c r="F6" t="n">
+        <v>20.66791971817275</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5013604231652892</v>
+      </c>
+      <c r="H6" t="n">
         <v>204</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>2338.04347826087</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>3949</v>
       </c>
     </row>
@@ -637,21 +677,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200.17885375493</v>
+        <v>200.1788537549407</v>
       </c>
       <c r="D7" t="n">
-        <v>-396319.5108695435</v>
+        <v>-396319.5108695652</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4970784633050655</v>
+        <v>0.0001720751346078831</v>
       </c>
       <c r="F7" t="n">
+        <v>43.93859788698837</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.4970784633050654</v>
+      </c>
+      <c r="H7" t="n">
         <v>3678</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>6640.521739130435</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>10688</v>
       </c>
     </row>
@@ -667,21 +713,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-10.17490118577082</v>
+        <v>-10.17490118577075</v>
       </c>
       <c r="D8" t="n">
-        <v>20694.94565217405</v>
+        <v>20694.94565217391</v>
       </c>
       <c r="E8" t="n">
+        <v>0.0002339086295444357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.298225274443654</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.4827696233071178</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>89</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>212.8695652173913</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>468</v>
       </c>
     </row>
@@ -697,21 +749,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>239.3833992094768</v>
+        <v>239.3833992094861</v>
       </c>
       <c r="D9" t="n">
-        <v>-477244.6956521548</v>
+        <v>-477244.6956521738</v>
       </c>
       <c r="E9" t="n">
+        <v>0.0002560483273151352</v>
+      </c>
+      <c r="F9" t="n">
+        <v>54.53619485597774</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4784836070299175</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>1792</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>4634.086956521739</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>11646</v>
       </c>
     </row>
@@ -727,21 +785,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>114.8656126482137</v>
+        <v>114.8656126482213</v>
       </c>
       <c r="D10" t="n">
-        <v>-227159.0434782454</v>
+        <v>-227159.0434782609</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4582546670144684</v>
+        <v>0.0003888632143736162</v>
       </c>
       <c r="F10" t="n">
+        <v>27.25364075290233</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.4582546670144682</v>
+      </c>
+      <c r="H10" t="n">
         <v>2361</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>4065.434782608696</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>5900</v>
       </c>
     </row>
@@ -757,21 +821,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-4.6867588932804</v>
+        <v>-4.686758893280634</v>
       </c>
       <c r="D11" t="n">
-        <v>9556.358695651705</v>
+        <v>9556.358695652176</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4498780796263271</v>
+        <v>0.0004604090987737001</v>
       </c>
       <c r="F11" t="n">
+        <v>1.130954215357716</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4498780796263273</v>
+      </c>
+      <c r="H11" t="n">
         <v>43</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>121.9130434782609</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>210</v>
       </c>
     </row>
@@ -787,21 +857,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21.67490118576996</v>
+        <v>21.67490118577075</v>
       </c>
       <c r="D12" t="n">
-        <v>-43030.05434782448</v>
+        <v>-43030.05434782608</v>
       </c>
       <c r="E12" t="n">
+        <v>0.001461100041155388</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.922434440473037</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3894302687948854</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>282</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>601.5217391304348</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>1287</v>
       </c>
     </row>
@@ -817,21 +893,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-21.71925027344214</v>
+        <v>-21.71925027344138</v>
       </c>
       <c r="D13" t="n">
-        <v>44178.29859799297</v>
+        <v>44178.29859799144</v>
       </c>
       <c r="E13" t="n">
+        <v>0.002700494723189842</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6.300696506292032</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3847674043352908</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>127</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>462.6190476190476</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>1043</v>
       </c>
     </row>
@@ -847,21 +929,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17.39426877470299</v>
+        <v>17.39426877470356</v>
       </c>
       <c r="D14" t="n">
-        <v>-34622.05434782492</v>
+        <v>-34622.05434782609</v>
       </c>
       <c r="E14" t="n">
+        <v>0.00194998624669875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.916583315973219</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3734443551035231</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>129</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>392.6086956521739</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>846</v>
       </c>
     </row>
@@ -877,21 +965,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>65.71245059288488</v>
+        <v>65.71245059288538</v>
       </c>
       <c r="D15" t="n">
-        <v>-128801.8152173903</v>
+        <v>-128801.8152173913</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3067468980569589</v>
+        <v>0.006107908593899428</v>
       </c>
       <c r="F15" t="n">
+        <v>21.55727376456605</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3067468980569588</v>
+      </c>
+      <c r="H15" t="n">
         <v>2304</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>3477.347826086957</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>4991</v>
       </c>
     </row>
@@ -907,21 +1001,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>34.02462565397759</v>
+        <v>34.02462565397801</v>
       </c>
       <c r="D16" t="n">
-        <v>-67727.98277106181</v>
+        <v>-67727.98277106264</v>
       </c>
       <c r="E16" t="n">
+        <v>0.00789571310181336</v>
+      </c>
+      <c r="F16" t="n">
+        <v>11.52906964795883</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3033688962338557</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>212</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>766.6818181818181</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>1966</v>
       </c>
     </row>
@@ -937,21 +1037,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116.6868121955612</v>
+        <v>116.6868121955621</v>
       </c>
       <c r="D17" t="n">
-        <v>-232144.206296228</v>
+        <v>-232144.2062962296</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2391419122176399</v>
+        <v>0.02090892026050591</v>
       </c>
       <c r="F17" t="n">
+        <v>46.5404694279019</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.23914191221764</v>
+      </c>
+      <c r="H17" t="n">
         <v>135</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>2756.954545454545</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>6594</v>
       </c>
     </row>
@@ -967,21 +1073,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.96343873517627</v>
+        <v>24.96343873517786</v>
       </c>
       <c r="D18" t="n">
-        <v>-49648.88043477937</v>
+        <v>-49648.88043478261</v>
       </c>
       <c r="E18" t="n">
+        <v>0.01865033601965247</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.790215258665789</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.2364097639239887</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>108</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>602.5217391304348</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>1277</v>
       </c>
     </row>
@@ -997,21 +1109,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>52.48854410968748</v>
+        <v>52.48854410968792</v>
       </c>
       <c r="D19" t="n">
-        <v>-104564.6655240836</v>
+        <v>-104564.6655240845</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2355869943140633</v>
+        <v>0.02203098132217082</v>
       </c>
       <c r="F19" t="n">
+        <v>21.14160269342436</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2355869943140632</v>
+      </c>
+      <c r="H19" t="n">
         <v>205</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>1099.545454545455</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>2716</v>
       </c>
     </row>
@@ -1027,21 +1145,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>72.92391304347703</v>
+        <v>72.92391304347827</v>
       </c>
       <c r="D20" t="n">
-        <v>-145157.9239130409</v>
+        <v>-145157.9239130435</v>
       </c>
       <c r="E20" t="n">
+        <v>0.02281787777397526</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.68582903795322</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.2232148902802187</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>101</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>1637.913043478261</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>5028</v>
       </c>
     </row>
@@ -1057,21 +1181,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>130.6472332015772</v>
+        <v>130.647233201581</v>
       </c>
       <c r="D21" t="n">
-        <v>-260325.8804347747</v>
+        <v>-260325.8804347826</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2134914961295107</v>
+        <v>0.0264406257051383</v>
       </c>
       <c r="F21" t="n">
+        <v>54.72074360635582</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2134914961295108</v>
+      </c>
+      <c r="H21" t="n">
         <v>409</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>2667</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>7268</v>
       </c>
     </row>
@@ -1087,21 +1217,27 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-29.35276679841643</v>
+        <v>-29.35276679841897</v>
       </c>
       <c r="D22" t="n">
-        <v>59570.29347825572</v>
+        <v>59570.29347826086</v>
       </c>
       <c r="E22" t="n">
+        <v>0.03135418885342853</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12.7246079986834</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.202163916901263</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>483.1739130434783</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>1631</v>
       </c>
     </row>
@@ -1117,21 +1253,27 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>48.07806324110561</v>
+        <v>48.07806324110672</v>
       </c>
       <c r="D23" t="n">
-        <v>-95361.14130434555</v>
+        <v>-95361.14130434782</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1930903768235276</v>
+        <v>0.03591018973186379</v>
       </c>
       <c r="F23" t="n">
+        <v>21.44714309575713</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.1930903768235275</v>
+      </c>
+      <c r="H23" t="n">
         <v>497</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>1420</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>3324</v>
       </c>
     </row>
@@ -1147,21 +1289,27 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>54.07905138339893</v>
+        <v>54.0790513833992</v>
       </c>
       <c r="D24" t="n">
-        <v>-106643.5217391298</v>
+        <v>-106643.5217391304</v>
       </c>
       <c r="E24" t="n">
+        <v>0.03599858328613568</v>
+      </c>
+      <c r="F24" t="n">
+        <v>24.13689387381259</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.1929255231343659</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>220</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>2217.608695652174</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>3988</v>
       </c>
     </row>
@@ -1177,21 +1325,27 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-2.439723320158029</v>
+        <v>-2.439723320158103</v>
       </c>
       <c r="D25" t="n">
-        <v>5036.20652173898</v>
+        <v>5036.20652173913</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1890257977212572</v>
+        <v>0.03815180187673797</v>
       </c>
       <c r="F25" t="n">
+        <v>1.102741984957561</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1890257977212571</v>
+      </c>
+      <c r="H25" t="n">
         <v>41</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>125.0434782608696</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>202</v>
       </c>
     </row>
@@ -1207,21 +1361,27 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>54.80506945697301</v>
+        <v>54.80506945697281</v>
       </c>
       <c r="D26" t="n">
-        <v>-108735.8598232009</v>
+        <v>-108735.8598232005</v>
       </c>
       <c r="E26" t="n">
+        <v>0.0578096504277717</v>
+      </c>
+      <c r="F26" t="n">
+        <v>27.2300115419092</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.1684284465091601</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
         <v>110</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>1591.727272727273</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>4248</v>
       </c>
     </row>
@@ -1237,21 +1397,27 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>96.06521739130388</v>
+        <v>96.06521739130432</v>
       </c>
       <c r="D27" t="n">
-        <v>-190438.1956521729</v>
+        <v>-190438.1956521739</v>
       </c>
       <c r="E27" t="n">
+        <v>0.07804344345704411</v>
+      </c>
+      <c r="F27" t="n">
+        <v>51.8534577482615</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.140479746870848</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
         <v>727</v>
       </c>
-      <c r="G27" t="n">
+      <c r="I27" t="n">
         <v>2941.086956521739</v>
       </c>
-      <c r="H27" t="n">
+      <c r="J27" t="n">
         <v>7226</v>
       </c>
     </row>
@@ -1267,21 +1433,27 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>109.2915019762871</v>
+        <v>109.2915019762846</v>
       </c>
       <c r="D28" t="n">
-        <v>-215831.402173918</v>
+        <v>-215831.4021739131</v>
       </c>
       <c r="E28" t="n">
+        <v>0.09704103128875415</v>
+      </c>
+      <c r="F28" t="n">
+        <v>62.9210109405874</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.1256208945368686</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
         <v>1378</v>
       </c>
-      <c r="G28" t="n">
+      <c r="I28" t="n">
         <v>4172.391304347826</v>
       </c>
-      <c r="H28" t="n">
+      <c r="J28" t="n">
         <v>8847</v>
       </c>
     </row>
@@ -1297,21 +1469,27 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13.37450592885297</v>
+        <v>13.37450592885376</v>
       </c>
       <c r="D29" t="n">
-        <v>-25744.53260869405</v>
+        <v>-25744.53260869566</v>
       </c>
       <c r="E29" t="n">
+        <v>0.1380389241678802</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.674177491257245</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.1016958009897755</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
         <v>654</v>
       </c>
-      <c r="G29" t="n">
+      <c r="I29" t="n">
         <v>1178.347826086957</v>
       </c>
-      <c r="H29" t="n">
+      <c r="J29" t="n">
         <v>1832</v>
       </c>
     </row>
@@ -1327,21 +1505,27 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>294.6492094861644</v>
+        <v>294.649209486166</v>
       </c>
       <c r="D30" t="n">
-        <v>-581072.9021739094</v>
+        <v>-581072.902173913</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08773629347116738</v>
+        <v>0.1699542614616684</v>
       </c>
       <c r="F30" t="n">
+        <v>207.3319297639802</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.08773629347116735</v>
+      </c>
+      <c r="H30" t="n">
         <v>11</v>
       </c>
-      <c r="G30" t="n">
+      <c r="I30" t="n">
         <v>12055.95652173913</v>
       </c>
-      <c r="H30" t="n">
+      <c r="J30" t="n">
         <v>27702</v>
       </c>
     </row>
@@ -1357,21 +1541,27 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.351778656126578</v>
+        <v>-1.351778656126483</v>
       </c>
       <c r="D31" t="n">
-        <v>2855.086956521931</v>
+        <v>2855.08695652174</v>
       </c>
       <c r="E31" t="n">
+        <v>0.1808074752893315</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9765200190704278</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.08361911992742209</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
         <v>67</v>
       </c>
-      <c r="G31" t="n">
+      <c r="I31" t="n">
         <v>133.9565217391304</v>
       </c>
-      <c r="H31" t="n">
+      <c r="J31" t="n">
         <v>189</v>
       </c>
     </row>
@@ -1387,21 +1577,27 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72.29743083003895</v>
+        <v>72.29743083003952</v>
       </c>
       <c r="D32" t="n">
-        <v>-140475.1195652162</v>
+        <v>-140475.1195652174</v>
       </c>
       <c r="E32" t="n">
+        <v>0.1964320037361331</v>
+      </c>
+      <c r="F32" t="n">
+        <v>54.18847160688696</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.07814069574703369</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
         <v>1115</v>
       </c>
-      <c r="G32" t="n">
+      <c r="I32" t="n">
         <v>5059.608695652174</v>
       </c>
-      <c r="H32" t="n">
+      <c r="J32" t="n">
         <v>7698</v>
       </c>
     </row>
@@ -1417,21 +1613,27 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-12.07910878585562</v>
+        <v>-12.07910878585605</v>
       </c>
       <c r="D33" t="n">
-        <v>25093.11681399879</v>
+        <v>25093.11681399967</v>
       </c>
       <c r="E33" t="n">
+        <v>0.2265305923920396</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.680621760833608</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.0722232104038126</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
         <v>315</v>
       </c>
-      <c r="G33" t="n">
+      <c r="I33" t="n">
         <v>776.7727272727273</v>
       </c>
-      <c r="H33" t="n">
+      <c r="J33" t="n">
         <v>1636</v>
       </c>
     </row>
@@ -1447,21 +1649,27 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11.66007905138317</v>
+        <v>11.6600790513834</v>
       </c>
       <c r="D34" t="n">
-        <v>-22950.52173912996</v>
+        <v>-22950.52173913043</v>
       </c>
       <c r="E34" t="n">
+        <v>0.2185414059910367</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.192846229909149</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.07115827627663364</v>
       </c>
-      <c r="F34" t="n">
+      <c r="H34" t="n">
         <v>70</v>
       </c>
-      <c r="G34" t="n">
+      <c r="I34" t="n">
         <v>521.2173913043479</v>
       </c>
-      <c r="H34" t="n">
+      <c r="J34" t="n">
         <v>1236</v>
       </c>
     </row>
@@ -1477,21 +1685,27 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>75.92687747035795</v>
+        <v>75.92687747035576</v>
       </c>
       <c r="D35" t="n">
-        <v>-149435.4130434826</v>
+        <v>-149435.4130434783</v>
       </c>
       <c r="E35" t="n">
+        <v>0.2201523309339398</v>
+      </c>
+      <c r="F35" t="n">
+        <v>60.07837126554176</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.07068063928101193</v>
       </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>18</v>
       </c>
-      <c r="G35" t="n">
+      <c r="I35" t="n">
         <v>3405.391304347826</v>
       </c>
-      <c r="H35" t="n">
+      <c r="J35" t="n">
         <v>9790</v>
       </c>
     </row>
@@ -1507,21 +1721,27 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-73.30533596837088</v>
+        <v>-73.30533596837944</v>
       </c>
       <c r="D36" t="n">
-        <v>149560.4239130262</v>
+        <v>149560.4239130435</v>
       </c>
       <c r="E36" t="n">
-        <v>0.06963207045289135</v>
+        <v>0.2237359102485389</v>
       </c>
       <c r="F36" t="n">
+        <v>58.47209473908564</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.06963207045289138</v>
+      </c>
+      <c r="H36" t="n">
         <v>34</v>
       </c>
-      <c r="G36" t="n">
+      <c r="I36" t="n">
         <v>1996.782608695652</v>
       </c>
-      <c r="H36" t="n">
+      <c r="J36" t="n">
         <v>6195</v>
       </c>
     </row>
@@ -1537,21 +1757,27 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>230.5434782608704</v>
+        <v>230.5434782608697</v>
       </c>
       <c r="D37" t="n">
-        <v>-457739.4347826105</v>
+        <v>-457739.434782609</v>
       </c>
       <c r="E37" t="n">
-        <v>0.06430832682654121</v>
+        <v>0.2548059001892211</v>
       </c>
       <c r="F37" t="n">
+        <v>196.6394362873515</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.06430832682654124</v>
+      </c>
+      <c r="H37" t="n">
         <v>63</v>
       </c>
-      <c r="G37" t="n">
+      <c r="I37" t="n">
         <v>6365.545454545455</v>
       </c>
-      <c r="H37" t="n">
+      <c r="J37" t="n">
         <v>28230</v>
       </c>
     </row>
@@ -1567,21 +1793,27 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>27.48715415019806</v>
+        <v>27.48715415019764</v>
       </c>
       <c r="D38" t="n">
-        <v>-52009.25000000086</v>
+        <v>-52009.25000000001</v>
       </c>
       <c r="E38" t="n">
+        <v>0.2904519517672127</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25.34625016606864</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.05303317079099578</v>
       </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>1909</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
         <v>3322.391304347826</v>
       </c>
-      <c r="H38" t="n">
+      <c r="J38" t="n">
         <v>5489</v>
       </c>
     </row>
@@ -1597,21 +1829,27 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>37.31027667984294</v>
+        <v>37.31027667984191</v>
       </c>
       <c r="D39" t="n">
-        <v>-72845.19565217599</v>
+        <v>-72845.19565217393</v>
       </c>
       <c r="E39" t="n">
-        <v>0.05149368500631376</v>
+        <v>0.2977580358180197</v>
       </c>
       <c r="F39" t="n">
+        <v>34.94314171879935</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.05149368500631377</v>
+      </c>
+      <c r="H39" t="n">
         <v>550</v>
       </c>
-      <c r="G39" t="n">
+      <c r="I39" t="n">
         <v>2260.391304347826</v>
       </c>
-      <c r="H39" t="n">
+      <c r="J39" t="n">
         <v>4617</v>
       </c>
     </row>
@@ -1627,21 +1865,27 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-30.70553359683905</v>
+        <v>-30.70553359683795</v>
       </c>
       <c r="D40" t="n">
-        <v>64587.45652174134</v>
+        <v>64587.45652173915</v>
       </c>
       <c r="E40" t="n">
+        <v>0.3314074826811605</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30.88228026599718</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.04495906490270359</v>
       </c>
-      <c r="F40" t="n">
+      <c r="H40" t="n">
         <v>1152</v>
       </c>
-      <c r="G40" t="n">
+      <c r="I40" t="n">
         <v>2777.217391304348</v>
       </c>
-      <c r="H40" t="n">
+      <c r="J40" t="n">
         <v>4270</v>
       </c>
     </row>
@@ -1657,21 +1901,27 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>133.5387876601081</v>
+        <v>133.5387876601119</v>
       </c>
       <c r="D41" t="n">
-        <v>-265173.1285404938</v>
+        <v>-265173.1285405017</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03756761592462633</v>
+        <v>0.3874309889638804</v>
       </c>
       <c r="F41" t="n">
+        <v>151.1369757025238</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03756761592462634</v>
+      </c>
+      <c r="H41" t="n">
         <v>231</v>
       </c>
-      <c r="G41" t="n">
+      <c r="I41" t="n">
         <v>3652.590909090909</v>
       </c>
-      <c r="H41" t="n">
+      <c r="J41" t="n">
         <v>18032</v>
       </c>
     </row>
@@ -1687,21 +1937,27 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4.451380119069264</v>
+        <v>4.451380119069099</v>
       </c>
       <c r="D42" t="n">
-        <v>-8683.123759697253</v>
+        <v>-8683.12375969692</v>
       </c>
       <c r="E42" t="n">
+        <v>0.4169758548883039</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5.370596213533052</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.03320834693149212</v>
       </c>
-      <c r="F42" t="n">
+      <c r="H42" t="n">
         <v>6</v>
       </c>
-      <c r="G42" t="n">
+      <c r="I42" t="n">
         <v>277.9090909090909</v>
       </c>
-      <c r="H42" t="n">
+      <c r="J42" t="n">
         <v>647</v>
       </c>
     </row>
@@ -1717,21 +1973,27 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>57.75197628458769</v>
+        <v>57.75197628458499</v>
       </c>
       <c r="D43" t="n">
-        <v>-114640.9021739185</v>
+        <v>-114640.9021739131</v>
       </c>
       <c r="E43" t="n">
+        <v>0.4263630520954605</v>
+      </c>
+      <c r="F43" t="n">
+        <v>71.19532949007684</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.03038170882764052</v>
       </c>
-      <c r="F43" t="n">
+      <c r="H43" t="n">
         <v>24</v>
       </c>
-      <c r="G43" t="n">
+      <c r="I43" t="n">
         <v>1613.826086956522</v>
       </c>
-      <c r="H43" t="n">
+      <c r="J43" t="n">
         <v>6673</v>
       </c>
     </row>
@@ -1747,21 +2009,27 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>108.0286561264836</v>
+        <v>108.0286561264822</v>
       </c>
       <c r="D44" t="n">
-        <v>-212302.6847826114</v>
+        <v>-212302.6847826087</v>
       </c>
       <c r="E44" t="n">
+        <v>0.4757440351929904</v>
+      </c>
+      <c r="F44" t="n">
+        <v>148.7625772929179</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.02449628313468733</v>
       </c>
-      <c r="F44" t="n">
+      <c r="H44" t="n">
         <v>1134</v>
       </c>
-      <c r="G44" t="n">
+      <c r="I44" t="n">
         <v>5159</v>
       </c>
-      <c r="H44" t="n">
+      <c r="J44" t="n">
         <v>22122</v>
       </c>
     </row>
@@ -1777,21 +2045,27 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-18.10968379446819</v>
+        <v>-18.10968379446642</v>
       </c>
       <c r="D45" t="n">
-        <v>38941.40217391662</v>
+        <v>38941.40217391307</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02422591774807147</v>
+        <v>0.4782197633972853</v>
       </c>
       <c r="F45" t="n">
+        <v>25.08047400153204</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.02422591774807146</v>
+      </c>
+      <c r="H45" t="n">
         <v>1106</v>
       </c>
-      <c r="G45" t="n">
+      <c r="I45" t="n">
         <v>2486.608695652174</v>
       </c>
-      <c r="H45" t="n">
+      <c r="J45" t="n">
         <v>4038</v>
       </c>
     </row>
@@ -1807,21 +2081,27 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.4525691699593</v>
+        <v>68.45256916996048</v>
       </c>
       <c r="D46" t="n">
-        <v>-133973.673913041</v>
+        <v>-133973.6739130435</v>
       </c>
       <c r="E46" t="n">
-        <v>0.02302483082200399</v>
+        <v>0.4894694709126487</v>
       </c>
       <c r="F46" t="n">
+        <v>97.30242060192035</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.023024830822004</v>
+      </c>
+      <c r="H46" t="n">
         <v>470</v>
       </c>
-      <c r="G46" t="n">
+      <c r="I46" t="n">
         <v>3821.347826086957</v>
       </c>
-      <c r="H46" t="n">
+      <c r="J46" t="n">
         <v>13364</v>
       </c>
     </row>
@@ -1837,21 +2117,27 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>34.44466403162287</v>
+        <v>34.44466403162055</v>
       </c>
       <c r="D47" t="n">
-        <v>-68087.97826087422</v>
+        <v>-68087.97826086955</v>
       </c>
       <c r="E47" t="n">
+        <v>0.4995915951987077</v>
+      </c>
+      <c r="F47" t="n">
+        <v>50.13682319779636</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.0219815362050225</v>
       </c>
-      <c r="F47" t="n">
+      <c r="H47" t="n">
         <v>20</v>
       </c>
-      <c r="G47" t="n">
+      <c r="I47" t="n">
         <v>1249.130434782609</v>
       </c>
-      <c r="H47" t="n">
+      <c r="J47" t="n">
         <v>4443</v>
       </c>
     </row>
@@ -1867,21 +2153,27 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.759426303445995</v>
+        <v>8.759426303445792</v>
       </c>
       <c r="D48" t="n">
-        <v>-17301.47600577347</v>
+        <v>-17301.47600577306</v>
       </c>
       <c r="E48" t="n">
+        <v>0.5234001386695747</v>
+      </c>
+      <c r="F48" t="n">
+        <v>13.48624540511435</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.02065731621021804</v>
       </c>
-      <c r="F48" t="n">
+      <c r="H48" t="n">
         <v>19</v>
       </c>
-      <c r="G48" t="n">
+      <c r="I48" t="n">
         <v>332.0454545454546</v>
       </c>
-      <c r="H48" t="n">
+      <c r="J48" t="n">
         <v>1570</v>
       </c>
     </row>
@@ -1897,21 +2189,27 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.623541825429423</v>
+        <v>1.623541825429392</v>
       </c>
       <c r="D49" t="n">
-        <v>-3202.447329855272</v>
+        <v>-3202.447329855209</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01879688786359764</v>
+        <v>0.564350867684785</v>
       </c>
       <c r="F49" t="n">
+        <v>2.764799944015612</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.01879688786359763</v>
+      </c>
+      <c r="H49" t="n">
         <v>1</v>
       </c>
-      <c r="G49" t="n">
+      <c r="I49" t="n">
         <v>64.2</v>
       </c>
-      <c r="H49" t="n">
+      <c r="J49" t="n">
         <v>271</v>
       </c>
     </row>
@@ -1927,21 +2225,27 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>23.46837944663983</v>
+        <v>23.46837944664031</v>
       </c>
       <c r="D50" t="n">
-        <v>-45463.02173912943</v>
+        <v>-45463.02173913043</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0158516108275164</v>
+        <v>0.5670348708901931</v>
       </c>
       <c r="F50" t="n">
+        <v>40.35218410589496</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.01585161082751639</v>
+      </c>
+      <c r="H50" t="n">
         <v>346</v>
       </c>
-      <c r="G50" t="n">
+      <c r="I50" t="n">
         <v>1778.826086956522</v>
       </c>
-      <c r="H50" t="n">
+      <c r="J50" t="n">
         <v>4745</v>
       </c>
     </row>
@@ -1957,21 +2261,27 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.4268774703556738</v>
+        <v>-0.4268774703557313</v>
       </c>
       <c r="D51" t="n">
-        <v>922.0434782607534</v>
+        <v>922.0434782608696</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01162857934730811</v>
+        <v>0.6243074782926969</v>
       </c>
       <c r="F51" t="n">
+        <v>0.8587966588612087</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0116285793473081</v>
+      </c>
+      <c r="H51" t="n">
         <v>2</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
         <v>62.73913043478261</v>
       </c>
-      <c r="H51" t="n">
+      <c r="J51" t="n">
         <v>116</v>
       </c>
     </row>
@@ -1987,21 +2297,27 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.3462441314553499</v>
+        <v>0.346244131455399</v>
       </c>
       <c r="D52" t="n">
-        <v>-672.2543035992752</v>
+        <v>-672.2543035993739</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006203856625718872</v>
+        <v>0.756057465009662</v>
       </c>
       <c r="F52" t="n">
+        <v>1.095570190975347</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.006203856625718875</v>
+      </c>
+      <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="n">
+      <c r="I52" t="n">
         <v>24.38888888888889</v>
       </c>
-      <c r="H52" t="n">
+      <c r="J52" t="n">
         <v>120</v>
       </c>
     </row>
@@ -2017,21 +2333,27 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>27.65612648221757</v>
+        <v>27.65612648221346</v>
       </c>
       <c r="D53" t="n">
-        <v>-51149.00000000829</v>
+        <v>-51149.00000000004</v>
       </c>
       <c r="E53" t="n">
+        <v>0.7308980783980807</v>
+      </c>
+      <c r="F53" t="n">
+        <v>79.34646543798519</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.005751790476164746</v>
       </c>
-      <c r="F53" t="n">
+      <c r="H53" t="n">
         <v>1051</v>
       </c>
-      <c r="G53" t="n">
+      <c r="I53" t="n">
         <v>4522.782608695652</v>
       </c>
-      <c r="H53" t="n">
+      <c r="J53" t="n">
         <v>9207</v>
       </c>
     </row>
@@ -2047,21 +2369,27 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9.172924901184979</v>
+        <v>9.17292490118577</v>
       </c>
       <c r="D54" t="n">
-        <v>-16845.1847826071</v>
+        <v>-16845.1847826087</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004896524928789634</v>
+        <v>0.7510435694829689</v>
       </c>
       <c r="F54" t="n">
+        <v>28.53568663015516</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.004896524928789632</v>
+      </c>
+      <c r="H54" t="n">
         <v>120</v>
       </c>
-      <c r="G54" t="n">
+      <c r="I54" t="n">
         <v>1619.913043478261</v>
       </c>
-      <c r="H54" t="n">
+      <c r="J54" t="n">
         <v>3225</v>
       </c>
     </row>
@@ -2077,21 +2405,27 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.6037549407121237</v>
+        <v>-0.6037549407114617</v>
       </c>
       <c r="D55" t="n">
-        <v>2024.489130436113</v>
+        <v>2024.489130434781</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0002352836176204581</v>
+        <v>0.9446198885083689</v>
       </c>
       <c r="F55" t="n">
+        <v>8.588238739489871</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.000235283617620458</v>
+      </c>
+      <c r="H55" t="n">
         <v>355</v>
       </c>
-      <c r="G55" t="n">
+      <c r="I55" t="n">
         <v>809.1304347826087</v>
       </c>
-      <c r="H55" t="n">
+      <c r="J55" t="n">
         <v>1435</v>
       </c>
     </row>
